--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Data\Project\selenium\dotnet\LatihanSelenium\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B23A519-803E-48EF-8964-FE3CBB650807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B51303-334E-4DF6-AF69-955E0D2A02F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="2160" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>Module Name</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>PR</t>
-  </si>
-  <si>
-    <t>Contract</t>
   </si>
   <si>
     <t>12 Jan 2025</t>
@@ -338,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,9 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,7 +649,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
@@ -1003,10 +997,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1054,7 @@
         <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1121,7 +1115,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,13 +1150,13 @@
       <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1183,10 +1177,10 @@
       <c r="O1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="2" t="s">
         <v>68</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -1207,19 +1201,19 @@
         <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -1228,7 +1222,7 @@
         <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -1237,7 +1231,7 @@
         <v>30000</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1248,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -1257,7 +1251,7 @@
         <v>2400</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -1266,7 +1260,7 @@
         <v>3400000</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1277,7 +1271,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -1286,7 +1280,7 @@
         <v>45000</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1339,7 +1333,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
@@ -1352,6 +1346,12 @@
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Data\Project\selenium\dotnet\LatihanSelenium\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B51303-334E-4DF6-AF69-955E0D2A02F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B232FF17-48D3-49F8-8336-1E3E098B3F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="2160" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>Module Name</t>
   </si>
@@ -128,12 +128,6 @@
   </si>
   <si>
     <t>Action</t>
-  </si>
-  <si>
-    <t>Return To</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Result</t>
@@ -673,10 +667,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -684,7 +678,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -696,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -704,7 +698,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -716,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -725,16 +719,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -742,64 +736,64 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -846,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -925,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -937,7 +931,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -945,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -995,7 +989,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1008,13 +1002,12 @@
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1027,20 +1020,17 @@
       <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1048,16 +1038,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1065,12 +1055,12 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1136,55 +1126,55 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1195,25 +1185,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -1222,7 +1212,7 @@
         <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -1231,7 +1221,7 @@
         <v>30000</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1242,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -1251,7 +1241,7 @@
         <v>2400</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -1260,7 +1250,7 @@
         <v>3400000</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1271,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -1280,7 +1270,7 @@
         <v>45000</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1288,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1299,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1310,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1321,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>

--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Data\Project\selenium\dotnet\LatihanSelenium\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B232FF17-48D3-49F8-8336-1E3E098B3F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7359C119-FA6A-4C61-98E2-E7A6E0DC2B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="2160" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2940" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>Module Name</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Request Result</t>
-  </si>
-  <si>
     <t>User Login</t>
   </si>
   <si>
@@ -275,6 +272,24 @@
   </si>
   <si>
     <t>C:\Users\match\Downloads\GRUx6dEbcAAcC6A.jpg</t>
+  </si>
+  <si>
+    <t>PR/2025/01/0005</t>
+  </si>
+  <si>
+    <t>Document Number</t>
+  </si>
+  <si>
+    <t>Approve 1</t>
+  </si>
+  <si>
+    <t>Approve 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success approve </t>
   </si>
 </sst>
 </file>
@@ -329,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -359,6 +374,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,10 +685,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -678,7 +696,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -690,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -698,7 +716,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -710,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -719,16 +737,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -736,64 +754,64 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -859,9 +877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,10 +926,10 @@
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -919,19 +937,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10">
+        <v>45674</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -939,10 +966,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -989,12 +1019,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,22 +1042,22 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1038,13 +1068,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,13 +1088,47 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,55 +1193,55 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1185,25 +1252,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -1212,7 +1279,7 @@
         <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -1221,7 +1288,7 @@
         <v>30000</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1232,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -1241,7 +1308,7 @@
         <v>2400</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -1250,7 +1317,7 @@
         <v>3400000</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1261,7 +1328,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -1270,7 +1337,7 @@
         <v>45000</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1278,10 +1345,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1289,10 +1356,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1300,10 +1367,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1311,10 +1378,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Data\Project\selenium\dotnet\LatihanSelenium\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomatedTestingQuickAcq\LatihanSelenium\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7359C119-FA6A-4C61-98E2-E7A6E0DC2B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B22AE5-C6B8-4A8A-8434-5CEAD6DA7271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2940" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>Module Name</t>
   </si>
@@ -290,6 +290,60 @@
   </si>
   <si>
     <t xml:space="preserve">Success approve </t>
+  </si>
+  <si>
+    <t>Task Approve Purchase Request is Fail. Error : Search Task Purchase Request failed: OpenQA.Selenium.WebDriverTimeoutException: Timed out after 60 seconds
+ ---&gt; OpenQA.Selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='wrapper-pr-pending-task-list']//input[@placeholder='Search']"}
+  (Session info: chrome=131.0.6778.265); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+   at OpenQA.Selenium.WebDriver.UnpackAndThrowOnError(Response errorResponse, String commandToExecute)
+   at OpenQA.Selenium.WebDriver.ExecuteAsync(String driverCommandToExecute, Dictionary`2 parameters)
+   at OpenQA.Selenium.WebDriver.Execute(String driverCommandToExecute, Dictionary`2 parameters)
+   at OpenQA.Selenium.WebDriver.FindElement(String mechanism, String value)
+   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition, CancellationToken token)
+   --- End of inner exception stack trace ---
+   at OpenQA.Selenium.Support.UI.DefaultWait`1.ThrowTimeoutException(String exceptionMessage, Exception lastException)
+   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition, CancellationToken token)
+   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition)
+   at LatihanSelenium.Utilities.AutomationHelpers.ElementExist(IWebDriver driver, By locator, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 134</t>
+  </si>
+  <si>
+    <t>Open File</t>
+  </si>
+  <si>
+    <t>2025/01/20 10:36:53</t>
+  </si>
+  <si>
+    <t>Approval Purchase Request is Fail. Error : One or more sequences have failed.</t>
+  </si>
+  <si>
+    <t>Go To Data</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Approve Test</t>
+  </si>
+  <si>
+    <t>PR/TEST/20/1/2025</t>
+  </si>
+  <si>
+    <t>IT - Information Technology</t>
+  </si>
+  <si>
+    <t>Test2012025</t>
+  </si>
+  <si>
+    <t>Testing Remarks</t>
+  </si>
+  <si>
+    <t>Standard Pulpen AE-7 (Pulpen) Alfa Tip Black 0.5mm</t>
+  </si>
+  <si>
+    <t>C:\Users\Kenny Nathaniel\Downloads\lockscreentemp.jpg</t>
+  </si>
+  <si>
+    <t>2025/01/20 12:04:07</t>
   </si>
 </sst>
 </file>
@@ -344,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,6 +431,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,17 +721,16 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -714,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -735,7 +791,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -752,7 +808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -766,7 +822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -780,7 +836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -791,7 +847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -799,22 +855,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -832,14 +888,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -853,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -875,29 +931,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -932,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -961,7 +1017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -973,6 +1029,56 @@
       </c>
       <c r="D3" s="6">
         <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -983,6 +1089,12 @@
       <formula1>$A$2:$A$1048576</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I3" location="Task!A3" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="I4" location="Task!A6" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1018,26 +1130,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="65.21875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +1172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1080,7 +1192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1096,8 +1208,14 @@
       <c r="E3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1114,7 +1232,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1131,7 +1249,34 @@
         <v>74</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1167,28 +1312,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="3" width="8.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="27.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="27.85546875" style="3" customWidth="1"/>
-    <col min="13" max="15" width="27.85546875" customWidth="1"/>
-    <col min="16" max="17" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="27.44140625" style="3" customWidth="1"/>
+    <col min="10" max="12" width="27.88671875" style="3" customWidth="1"/>
+    <col min="13" max="15" width="27.88671875" customWidth="1"/>
+    <col min="16" max="17" width="8.5546875" customWidth="1"/>
     <col min="18" max="18" width="32" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1291,7 +1436,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1320,7 +1465,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1340,7 +1485,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1351,7 +1496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1362,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1373,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1382,6 +1527,53 @@
       </c>
       <c r="C8" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="11">
+        <v>45677</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomatedTestingQuickAcq\LatihanSelenium\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B22AE5-C6B8-4A8A-8434-5CEAD6DA7271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="9" r:id="rId1"/>
@@ -20,16 +14,16 @@
     <sheet name="PurchaseRequest" sheetId="19" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestPlan!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1"><![CDATA[TestPlan!$A$1:$K$2]]></definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr autoRecover="0"/>
+  <fileRecoveryPr autoRecover="0" crashSave="0" dataExtractLoad="0" repairLoad="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -44,246 +38,246 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
-  <si>
-    <t>Module Name</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Approval</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Approve</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Test Case Id</t>
-  </si>
-  <si>
-    <t>From Test Case Id</t>
-  </si>
-  <si>
-    <t>Date Test</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Screen Capture</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>User Login</t>
-  </si>
-  <si>
-    <t>Sequence</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>Data For</t>
-  </si>
-  <si>
-    <t>Attachment Path</t>
-  </si>
-  <si>
-    <t>Cost Center</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>P@ssw0rd</t>
-  </si>
-  <si>
-    <t>Purchase Request</t>
-  </si>
-  <si>
-    <t>Request For Quotation</t>
-  </si>
-  <si>
-    <t>Vendor Quotation</t>
-  </si>
-  <si>
-    <t>Vendor Selection</t>
-  </si>
-  <si>
-    <t>Purchase Order</t>
-  </si>
-  <si>
-    <t>ROGS</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>Save As Draft</t>
-  </si>
-  <si>
-    <t>Submit Draft</t>
-  </si>
-  <si>
-    <t>PR Type</t>
-  </si>
-  <si>
-    <t>Catalog / Contract</t>
-  </si>
-  <si>
-    <t>Non-Catalog / Non-Contract</t>
-  </si>
-  <si>
-    <t>Direct Purchase</t>
-  </si>
-  <si>
-    <t>Search List</t>
-  </si>
-  <si>
-    <t>Search Pending Task</t>
-  </si>
-  <si>
-    <t>Update Draft</t>
-  </si>
-  <si>
-    <t>Discard Draft</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Re Submit</t>
-  </si>
-  <si>
-    <t>Revise</t>
-  </si>
-  <si>
-    <t>PR Subject</t>
-  </si>
-  <si>
-    <t>Required Date</t>
-  </si>
-  <si>
-    <t>Project Code</t>
-  </si>
-  <si>
-    <t>Goods Item Name</t>
-  </si>
-  <si>
-    <t>Goods Item Qty</t>
-  </si>
-  <si>
-    <t>Goods Item Price</t>
-  </si>
-  <si>
-    <t>Services Item Name</t>
-  </si>
-  <si>
-    <t>Services Item Qty</t>
-  </si>
-  <si>
-    <t>Services Item Price</t>
-  </si>
-  <si>
-    <t>Goods VAT Rate</t>
-  </si>
-  <si>
-    <t>Services VAT Rate</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>12 Jan 2025</t>
-  </si>
-  <si>
-    <t>PC22</t>
-  </si>
-  <si>
-    <t>Pensil</t>
-  </si>
-  <si>
-    <t>Buku</t>
-  </si>
-  <si>
-    <t>Penghapus</t>
-  </si>
-  <si>
-    <t>License Windows 11 Pro</t>
-  </si>
-  <si>
-    <t>License Windows 10 Pro</t>
-  </si>
-  <si>
-    <t>Resubmit</t>
-  </si>
-  <si>
-    <t>C:\Users\match\Downloads\GRUx6dEbcAAcC6A.jpg</t>
-  </si>
-  <si>
-    <t>PR/2025/01/0005</t>
-  </si>
-  <si>
-    <t>Document Number</t>
-  </si>
-  <si>
-    <t>Approve 1</t>
-  </si>
-  <si>
-    <t>Approve 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+  <si>
+    <t xml:space="preserve">Module Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Test Case Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen Capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data For</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P@ssw0rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request For Quotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Quotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save As Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalog / Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Catalog / Non-Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Pending Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discard Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods VAT Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services VAT Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Jan 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penghapus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">License Windows 11 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">License Windows 10 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resubmit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\match\Downloads\GRUx6dEbcAAcC6A.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR/2025/01/0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve 2</t>
   </si>
   <si>
     <t xml:space="preserve">Reject </t>
@@ -292,7 +286,7 @@
     <t xml:space="preserve">Success approve </t>
   </si>
   <si>
-    <t>Task Approve Purchase Request is Fail. Error : Search Task Purchase Request failed: OpenQA.Selenium.WebDriverTimeoutException: Timed out after 60 seconds
+    <t xml:space="preserve">Task Approve Purchase Request is Fail. Error : Search Task Purchase Request failed: OpenQA.Selenium.WebDriverTimeoutException: Timed out after 60 seconds
  ---&gt; OpenQA.Selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='wrapper-pr-pending-task-list']//input[@placeholder='Search']"}
   (Session info: chrome=131.0.6778.265); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
    at OpenQA.Selenium.WebDriver.UnpackAndThrowOnError(Response errorResponse, String commandToExecute)
@@ -307,49 +301,56 @@
    at LatihanSelenium.Utilities.AutomationHelpers.ElementExist(IWebDriver driver, By locator, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 134</t>
   </si>
   <si>
-    <t>Open File</t>
-  </si>
-  <si>
-    <t>2025/01/20 10:36:53</t>
-  </si>
-  <si>
-    <t>Approval Purchase Request is Fail. Error : One or more sequences have failed.</t>
-  </si>
-  <si>
-    <t>Go To Data</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Approve Test</t>
-  </si>
-  <si>
-    <t>PR/TEST/20/1/2025</t>
-  </si>
-  <si>
-    <t>IT - Information Technology</t>
-  </si>
-  <si>
-    <t>Test2012025</t>
-  </si>
-  <si>
-    <t>Testing Remarks</t>
-  </si>
-  <si>
-    <t>Standard Pulpen AE-7 (Pulpen) Alfa Tip Black 0.5mm</t>
-  </si>
-  <si>
-    <t>C:\Users\Kenny Nathaniel\Downloads\lockscreentemp.jpg</t>
-  </si>
-  <si>
-    <t>2025/01/20 12:04:07</t>
+    <t xml:space="preserve">Open File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/01/20 10:36:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval Purchase Request is Fail. Error : One or more sequences have failed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go To Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR/TEST/20/1/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT - Information Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test2012025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Pulpen AE-7 (Pulpen) Alfa Tip Black 0.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Kenny Nathaniel\Downloads\lockscreentemp.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/01/20 12:04:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Approve Purchase Request is Fail. Error : Notes parameter cannot be empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/01/20 13:28:21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,11 +443,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -714,23 +715,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -770,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -791,7 +792,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -808,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -822,7 +823,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -836,7 +837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -847,7 +848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -855,22 +856,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -881,21 +882,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,17 +910,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -930,30 +931,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="53.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="53.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -988,18 +989,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10">
@@ -1017,107 +1018,141 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>87</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:K2"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$A$2:$A$1048576</formula1>
+  <dataValidations disablePrompts="0" count="1">
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1><![CDATA[$A$2:$A$1048576]]></formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I3" location="Task!A3" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="I4" location="Task!A6" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" location="Task!A3" display="Go To Data"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="I4" location="Task!A6" display="Go To Data"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="I5" location="Task!A7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$1000</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$50</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$20</xm:f>
           </x14:formula1>
@@ -1130,26 +1165,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
-    <col min="6" max="6" width="65.21875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="65.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1172,134 +1207,155 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="0">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$100</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
           <x14:formula1>
             <xm:f>Config!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
           <x14:formula1>
             <xm:f>Config!$F$2:$F$29</xm:f>
           </x14:formula1>
@@ -1312,28 +1368,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="3" width="8.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="27.44140625" style="3" customWidth="1"/>
-    <col min="10" max="12" width="27.88671875" style="3" customWidth="1"/>
-    <col min="13" max="15" width="27.88671875" customWidth="1"/>
-    <col min="16" max="17" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="27.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="27.85546875" style="3" customWidth="1"/>
+    <col min="13" max="15" width="27.85546875" customWidth="1"/>
+    <col min="16" max="17" width="8.5703125" customWidth="1"/>
     <col min="18" max="18" width="32" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +1445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1423,20 +1479,20 @@
       <c r="L2" s="3">
         <v>20000</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="0">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0">
         <v>30000</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1452,20 +1508,20 @@
       <c r="L3" s="3">
         <v>2400</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0">
         <v>2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="0">
         <v>3400000</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1485,7 +1541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1496,7 +1552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1507,7 +1563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1518,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1529,7 +1585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1560,16 +1616,16 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0">
         <v>2</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="0">
         <v>12</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="0">
         <v>12</v>
       </c>
       <c r="R9" s="6" t="s">
@@ -1581,21 +1637,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="3">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>

--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -3,8 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Data\Project\selenium\dotnet\LatihanSelenium\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE98A1BB-8F98-4A35-ABD0-9DBD17AB11A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="9" r:id="rId1"/>
@@ -14,16 +20,16 @@
     <sheet name="PurchaseRequest" sheetId="19" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1"><![CDATA[TestPlan!$A$1:$K$2]]></definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestPlan!$A$1:$K$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr autoRecover="0" crashSave="0" dataExtractLoad="0" repairLoad="0"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -38,246 +44,246 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
-  <si>
-    <t xml:space="preserve">Module Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Test Case Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen Capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screenshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P@ssw0rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request For Quotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor Quotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor Selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save As Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalog / Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Catalog / Non-Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct Purchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Pending Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discard Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods VAT Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services VAT Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Jan 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penghapus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">License Windows 11 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">License Windows 10 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resubmit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\match\Downloads\GRUx6dEbcAAcC6A.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR/2025/01/0005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approve 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approve 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>From Test Case Id</t>
+  </si>
+  <si>
+    <t>Date Test</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Screen Capture</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Data For</t>
+  </si>
+  <si>
+    <t>Attachment Path</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Purchase Request</t>
+  </si>
+  <si>
+    <t>Request For Quotation</t>
+  </si>
+  <si>
+    <t>Vendor Quotation</t>
+  </si>
+  <si>
+    <t>Vendor Selection</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>ROGS</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Save As Draft</t>
+  </si>
+  <si>
+    <t>Submit Draft</t>
+  </si>
+  <si>
+    <t>PR Type</t>
+  </si>
+  <si>
+    <t>Catalog / Contract</t>
+  </si>
+  <si>
+    <t>Non-Catalog / Non-Contract</t>
+  </si>
+  <si>
+    <t>Direct Purchase</t>
+  </si>
+  <si>
+    <t>Search List</t>
+  </si>
+  <si>
+    <t>Search Pending Task</t>
+  </si>
+  <si>
+    <t>Update Draft</t>
+  </si>
+  <si>
+    <t>Discard Draft</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Re Submit</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>PR Subject</t>
+  </si>
+  <si>
+    <t>Required Date</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Goods Item Name</t>
+  </si>
+  <si>
+    <t>Goods Item Qty</t>
+  </si>
+  <si>
+    <t>Goods Item Price</t>
+  </si>
+  <si>
+    <t>Services Item Name</t>
+  </si>
+  <si>
+    <t>Services Item Qty</t>
+  </si>
+  <si>
+    <t>Services Item Price</t>
+  </si>
+  <si>
+    <t>Goods VAT Rate</t>
+  </si>
+  <si>
+    <t>Services VAT Rate</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>12 Jan 2025</t>
+  </si>
+  <si>
+    <t>PC22</t>
+  </si>
+  <si>
+    <t>Pensil</t>
+  </si>
+  <si>
+    <t>Buku</t>
+  </si>
+  <si>
+    <t>Penghapus</t>
+  </si>
+  <si>
+    <t>License Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>License Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Resubmit</t>
+  </si>
+  <si>
+    <t>C:\Users\match\Downloads\GRUx6dEbcAAcC6A.jpg</t>
+  </si>
+  <si>
+    <t>PR/2025/01/0005</t>
+  </si>
+  <si>
+    <t>Document Number</t>
+  </si>
+  <si>
+    <t>Approve 1</t>
+  </si>
+  <si>
+    <t>Approve 2</t>
   </si>
   <si>
     <t xml:space="preserve">Reject </t>
@@ -286,7 +292,7 @@
     <t xml:space="preserve">Success approve </t>
   </si>
   <si>
-    <t xml:space="preserve">Task Approve Purchase Request is Fail. Error : Search Task Purchase Request failed: OpenQA.Selenium.WebDriverTimeoutException: Timed out after 60 seconds
+    <t>Task Approve Purchase Request is Fail. Error : Search Task Purchase Request failed: OpenQA.Selenium.WebDriverTimeoutException: Timed out after 60 seconds
  ---&gt; OpenQA.Selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='wrapper-pr-pending-task-list']//input[@placeholder='Search']"}
   (Session info: chrome=131.0.6778.265); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
    at OpenQA.Selenium.WebDriver.UnpackAndThrowOnError(Response errorResponse, String commandToExecute)
@@ -301,57 +307,62 @@
    at LatihanSelenium.Utilities.AutomationHelpers.ElementExist(IWebDriver driver, By locator, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 134</t>
   </si>
   <si>
-    <t xml:space="preserve">Open File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/01/20 10:36:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approval Purchase Request is Fail. Error : One or more sequences have failed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go To Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Approve Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR/TEST/20/1/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT - Information Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test2012025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Pulpen AE-7 (Pulpen) Alfa Tip Black 0.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\Kenny Nathaniel\Downloads\lockscreentemp.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/01/20 12:04:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task Approve Purchase Request is Fail. Error : Notes parameter cannot be empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/01/20 13:28:21</t>
+    <t>Open File</t>
+  </si>
+  <si>
+    <t>2025/01/20 10:36:53</t>
+  </si>
+  <si>
+    <t>Approval Purchase Request is Fail. Error : One or more sequences have failed.</t>
+  </si>
+  <si>
+    <t>Go To Data</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Approve Test</t>
+  </si>
+  <si>
+    <t>PR/TEST/20/1/2025</t>
+  </si>
+  <si>
+    <t>IT - Information Technology</t>
+  </si>
+  <si>
+    <t>Test2012025</t>
+  </si>
+  <si>
+    <t>Testing Remarks</t>
+  </si>
+  <si>
+    <t>Standard Pulpen AE-7 (Pulpen) Alfa Tip Black 0.5mm</t>
+  </si>
+  <si>
+    <t>C:\Users\Kenny Nathaniel\Downloads\lockscreentemp.jpg</t>
+  </si>
+  <si>
+    <t>2025/01/20 12:04:07</t>
+  </si>
+  <si>
+    <t>Approve test 1</t>
+  </si>
+  <si>
+    <t>Success - Approve with Document Number : PR/2025/01/0005</t>
+  </si>
+  <si>
+    <t>2025/01/20 13:48:54</t>
+  </si>
+  <si>
+    <t>Approval Purchase Request is Successfully.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +389,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -396,10 +415,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,18 +456,22 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -715,8 +739,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -882,8 +906,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -911,16 +935,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -931,12 +955,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,14 +1017,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10">
@@ -1019,140 +1043,142 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="0">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="0">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2"/>
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="0" count="1">
-    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1><![CDATA[$A$2:$A$1048576]]></formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$A$2:$A$1048576</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="I3" location="Task!A3" display="Go To Data"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="I4" location="Task!A6" display="Go To Data"/>
-    <hyperlink ref="H5" r:id="rId3"/>
-    <hyperlink ref="I5" location="Task!A7"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I3" location="Task!A3" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="I4" location="Task!A6" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="I5" location="Task!A7" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="I5" location="Task!A7" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$1000</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$50</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$20</xm:f>
           </x14:formula1>
@@ -1165,13 +1191,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,19 +1234,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1228,134 +1254,137 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="0">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>79</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="0">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="0">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="0">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="0">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="E7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G6" r:id="rId2"/>
-    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$100</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
           <x14:formula1>
             <xm:f>Config!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
           <x14:formula1>
             <xm:f>Config!$F$2:$F$29</xm:f>
           </x14:formula1>
@@ -1368,8 +1397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1479,13 +1508,13 @@
       <c r="L2" s="3">
         <v>20000</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="0">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="O2" s="0">
+      <c r="O2">
         <v>30000</v>
       </c>
       <c r="R2" s="6" t="s">
@@ -1508,13 +1537,13 @@
       <c r="L3" s="3">
         <v>2400</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="0">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="O3" s="0">
+      <c r="O3">
         <v>3400000</v>
       </c>
       <c r="R3" s="6" t="s">
@@ -1616,16 +1645,16 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="0">
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="P9" s="0">
+      <c r="P9">
         <v>12</v>
       </c>
-      <c r="Q9" s="0">
+      <c r="Q9">
         <v>12</v>
       </c>
       <c r="R9" s="6" t="s">
@@ -1637,21 +1666,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="3">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>

--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Data\Project\selenium\dotnet\LatihanSelenium\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE98A1BB-8F98-4A35-ABD0-9DBD17AB11A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="9" r:id="rId1"/>
@@ -18,18 +12,19 @@
     <sheet name="TestPlan" sheetId="10" r:id="rId3"/>
     <sheet name="Task" sheetId="20" r:id="rId4"/>
     <sheet name="PurchaseRequest" sheetId="19" r:id="rId5"/>
+    <sheet name="RequestForQuotation" sheetId="21" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestPlan!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1"><![CDATA[TestPlan!$A$1:$K$2]]></definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr autoRecover="0"/>
+  <fileRecoveryPr autoRecover="0" crashSave="0" dataExtractLoad="0" repairLoad="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -44,324 +39,290 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
-  <si>
-    <t>Module Name</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Approval</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Approve</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Test Case Id</t>
-  </si>
-  <si>
-    <t>From Test Case Id</t>
-  </si>
-  <si>
-    <t>Date Test</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Screen Capture</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>User Login</t>
-  </si>
-  <si>
-    <t>Sequence</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>Data For</t>
-  </si>
-  <si>
-    <t>Attachment Path</t>
-  </si>
-  <si>
-    <t>Cost Center</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>P@ssw0rd</t>
-  </si>
-  <si>
-    <t>Purchase Request</t>
-  </si>
-  <si>
-    <t>Request For Quotation</t>
-  </si>
-  <si>
-    <t>Vendor Quotation</t>
-  </si>
-  <si>
-    <t>Vendor Selection</t>
-  </si>
-  <si>
-    <t>Purchase Order</t>
-  </si>
-  <si>
-    <t>ROGS</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>Save As Draft</t>
-  </si>
-  <si>
-    <t>Submit Draft</t>
-  </si>
-  <si>
-    <t>PR Type</t>
-  </si>
-  <si>
-    <t>Catalog / Contract</t>
-  </si>
-  <si>
-    <t>Non-Catalog / Non-Contract</t>
-  </si>
-  <si>
-    <t>Direct Purchase</t>
-  </si>
-  <si>
-    <t>Search List</t>
-  </si>
-  <si>
-    <t>Search Pending Task</t>
-  </si>
-  <si>
-    <t>Update Draft</t>
-  </si>
-  <si>
-    <t>Discard Draft</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Re Submit</t>
-  </si>
-  <si>
-    <t>Revise</t>
-  </si>
-  <si>
-    <t>PR Subject</t>
-  </si>
-  <si>
-    <t>Required Date</t>
-  </si>
-  <si>
-    <t>Project Code</t>
-  </si>
-  <si>
-    <t>Goods Item Name</t>
-  </si>
-  <si>
-    <t>Goods Item Qty</t>
-  </si>
-  <si>
-    <t>Goods Item Price</t>
-  </si>
-  <si>
-    <t>Services Item Name</t>
-  </si>
-  <si>
-    <t>Services Item Qty</t>
-  </si>
-  <si>
-    <t>Services Item Price</t>
-  </si>
-  <si>
-    <t>Goods VAT Rate</t>
-  </si>
-  <si>
-    <t>Services VAT Rate</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>12 Jan 2025</t>
-  </si>
-  <si>
-    <t>PC22</t>
-  </si>
-  <si>
-    <t>Pensil</t>
-  </si>
-  <si>
-    <t>Buku</t>
-  </si>
-  <si>
-    <t>Penghapus</t>
-  </si>
-  <si>
-    <t>License Windows 11 Pro</t>
-  </si>
-  <si>
-    <t>License Windows 10 Pro</t>
-  </si>
-  <si>
-    <t>Resubmit</t>
-  </si>
-  <si>
-    <t>C:\Users\match\Downloads\GRUx6dEbcAAcC6A.jpg</t>
-  </si>
-  <si>
-    <t>PR/2025/01/0005</t>
-  </si>
-  <si>
-    <t>Document Number</t>
-  </si>
-  <si>
-    <t>Approve 1</t>
-  </si>
-  <si>
-    <t>Approve 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success approve </t>
-  </si>
-  <si>
-    <t>Task Approve Purchase Request is Fail. Error : Search Task Purchase Request failed: OpenQA.Selenium.WebDriverTimeoutException: Timed out after 60 seconds
- ---&gt; OpenQA.Selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='wrapper-pr-pending-task-list']//input[@placeholder='Search']"}
-  (Session info: chrome=131.0.6778.265); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+  <si>
+    <t xml:space="preserve">Module Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Test Case Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen Capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data For</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P@ssw0rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request For Quotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Quotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save As Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalog / Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Catalog / Non-Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Pending Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discard Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods VAT Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services VAT Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penghapus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">License Windows 11 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">License Windows 10 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\chris\Downloads\Tips dan Trik untuk Produktivitas Harian- Comserv.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST APPROVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFQ Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFQ Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tender Briefing Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quotation Submission Due Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Appointment Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Attachment Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Attachment Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/01/20 17:04:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Purchase Request is Fail. Error : OpenQA.Selenium.InvalidElementStateException: invalid element state
+  (Session info: chrome=131.0.6778.266)
    at OpenQA.Selenium.WebDriver.UnpackAndThrowOnError(Response errorResponse, String commandToExecute)
    at OpenQA.Selenium.WebDriver.ExecuteAsync(String driverCommandToExecute, Dictionary`2 parameters)
-   at OpenQA.Selenium.WebDriver.Execute(String driverCommandToExecute, Dictionary`2 parameters)
-   at OpenQA.Selenium.WebDriver.FindElement(String mechanism, String value)
-   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition, CancellationToken token)
-   --- End of inner exception stack trace ---
-   at OpenQA.Selenium.Support.UI.DefaultWait`1.ThrowTimeoutException(String exceptionMessage, Exception lastException)
-   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition, CancellationToken token)
-   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition)
-   at LatihanSelenium.Utilities.AutomationHelpers.ElementExist(IWebDriver driver, By locator, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 134</t>
-  </si>
-  <si>
-    <t>Open File</t>
-  </si>
-  <si>
-    <t>2025/01/20 10:36:53</t>
-  </si>
-  <si>
-    <t>Approval Purchase Request is Fail. Error : One or more sequences have failed.</t>
-  </si>
-  <si>
-    <t>Go To Data</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Approve Test</t>
-  </si>
-  <si>
-    <t>PR/TEST/20/1/2025</t>
-  </si>
-  <si>
-    <t>IT - Information Technology</t>
-  </si>
-  <si>
-    <t>Test2012025</t>
-  </si>
-  <si>
-    <t>Testing Remarks</t>
-  </si>
-  <si>
-    <t>Standard Pulpen AE-7 (Pulpen) Alfa Tip Black 0.5mm</t>
-  </si>
-  <si>
-    <t>C:\Users\Kenny Nathaniel\Downloads\lockscreentemp.jpg</t>
-  </si>
-  <si>
-    <t>2025/01/20 12:04:07</t>
-  </si>
-  <si>
-    <t>Approve test 1</t>
-  </si>
-  <si>
-    <t>Success - Approve with Document Number : PR/2025/01/0005</t>
-  </si>
-  <si>
-    <t>2025/01/20 13:48:54</t>
-  </si>
-  <si>
-    <t>Approval Purchase Request is Successfully.</t>
+   at OpenQA.Selenium.WebDriver.InternalExecute(String driverCommandToExecute, Dictionary`2 parameters)
+   at OpenQA.Selenium.WebElement.Execute(String commandToExecute, Dictionary`2 parameters)
+   at OpenQA.Selenium.WebElement.Clear()
+   at LatihanSelenium.Utilities.AutomationHelpers.FillElement(IWebDriver driver, By locator, String param, Int32 sec) in C:\Users\chris\Documents\GitHub\LatihanSelenium\Utilities\AutomationHelpers.cs:line 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go To Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,7 +351,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -417,9 +378,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,23 +402,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -467,11 +425,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -739,23 +697,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -795,7 +753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -814,9 +772,9 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -833,7 +791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -847,7 +805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -861,7 +819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -872,7 +830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -880,22 +838,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -906,21 +864,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -934,17 +892,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -955,30 +913,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1007,178 +965,80 @@
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10">
-        <v>45674</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>76</v>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:K2"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$A$2:$A$1048576</formula1>
+  <dataValidations disablePrompts="0" count="1">
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1><![CDATA[$A$2:$A$1048576]]></formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I3" location="Task!A3" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="I4" location="Task!A6" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="I5" location="Task!A7" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="I5" location="Task!A7" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" location="PurchaseRequest!A2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$1000</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$50</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$20</xm:f>
           </x14:formula1>
@@ -1191,26 +1051,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="65.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="65.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1233,158 +1093,57 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>83</v>
-      </c>
+      <c r="E4" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="0"/>
+      <c r="G7" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$100</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
           <x14:formula1>
             <xm:f>Config!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
           <x14:formula1>
             <xm:f>Config!$F$2:$F$29</xm:f>
           </x14:formula1>
@@ -1397,28 +1156,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="3" width="8.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="27.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="27.85546875" style="3" customWidth="1"/>
-    <col min="13" max="15" width="27.85546875" customWidth="1"/>
-    <col min="16" max="17" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="27.44140625" style="3" customWidth="1"/>
+    <col min="10" max="12" width="27.88671875" style="3" customWidth="1"/>
+    <col min="13" max="15" width="27.88671875" customWidth="1"/>
+    <col min="16" max="17" width="8.5546875" customWidth="1"/>
     <col min="18" max="18" width="32" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1474,13 +1233,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>66</v>
       </c>
@@ -1490,17 +1252,17 @@
       <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>67</v>
+      <c r="G2" s="11">
+        <v>45677</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -1508,28 +1270,31 @@
       <c r="L2" s="3">
         <v>20000</v>
       </c>
-      <c r="M2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="0">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0">
         <v>30000</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
       <c r="J3" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -1537,28 +1302,31 @@
       <c r="L3" s="3">
         <v>2400</v>
       </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3">
+      <c r="M3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="0">
         <v>2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="0">
         <v>3400000</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
       <c r="J4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -1567,120 +1335,32 @@
         <v>45000</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="11">
-        <v>45677</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>12</v>
-      </c>
-      <c r="Q9">
-        <v>12</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>94</v>
-      </c>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="3">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
@@ -1690,4 +1370,137 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="14" width="31.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="N4" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="3">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58F7276C-A6B8-40E9-869A-286CC04A775C}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5FCBD161-9097-438F-9BDD-88984EF0A9B2}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$999</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{590AB1A5-E8EA-4FD2-B189-984D3FEAA961}">
+          <x14:formula1>
+            <xm:f>TestPlan!$A$2:$A$99538</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -3,8 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Data\Project\selenium\dotnet\LatihanSelenium\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA17C235-4E4D-4DB4-A609-C385E6645D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="9" r:id="rId1"/>
@@ -15,16 +21,16 @@
     <sheet name="RequestForQuotation" sheetId="21" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1"><![CDATA[TestPlan!$A$1:$K$2]]></definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestPlan!$A$1:$K$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr autoRecover="0" crashSave="0" dataExtractLoad="0" repairLoad="0"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -39,267 +45,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
-  <si>
-    <t xml:space="preserve">Module Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Test Case Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen Capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screenshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P@ssw0rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request For Quotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor Quotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor Selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save As Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalog / Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Catalog / Non-Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct Purchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Pending Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discard Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods VAT Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services VAT Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penghapus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">License Windows 11 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">License Windows 10 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\chris\Downloads\Tips dan Trik untuk Produktivitas Harian- Comserv.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST APPROVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFQ Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFQ Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tender Briefing Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quotation Submission Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target Appointment Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Attachment Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor Attachment Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/01/20 17:04:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit Purchase Request is Fail. Error : OpenQA.Selenium.InvalidElementStateException: invalid element state
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>From Test Case Id</t>
+  </si>
+  <si>
+    <t>Date Test</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Screen Capture</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Data For</t>
+  </si>
+  <si>
+    <t>Attachment Path</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Purchase Request</t>
+  </si>
+  <si>
+    <t>Request For Quotation</t>
+  </si>
+  <si>
+    <t>Vendor Quotation</t>
+  </si>
+  <si>
+    <t>Vendor Selection</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>ROGS</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Save As Draft</t>
+  </si>
+  <si>
+    <t>Submit Draft</t>
+  </si>
+  <si>
+    <t>PR Type</t>
+  </si>
+  <si>
+    <t>Catalog / Contract</t>
+  </si>
+  <si>
+    <t>Non-Catalog / Non-Contract</t>
+  </si>
+  <si>
+    <t>Direct Purchase</t>
+  </si>
+  <si>
+    <t>Search List</t>
+  </si>
+  <si>
+    <t>Search Pending Task</t>
+  </si>
+  <si>
+    <t>Update Draft</t>
+  </si>
+  <si>
+    <t>Discard Draft</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Re Submit</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>PR Subject</t>
+  </si>
+  <si>
+    <t>Required Date</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Goods Item Name</t>
+  </si>
+  <si>
+    <t>Goods Item Qty</t>
+  </si>
+  <si>
+    <t>Goods Item Price</t>
+  </si>
+  <si>
+    <t>Services Item Name</t>
+  </si>
+  <si>
+    <t>Services Item Qty</t>
+  </si>
+  <si>
+    <t>Services Item Price</t>
+  </si>
+  <si>
+    <t>Goods VAT Rate</t>
+  </si>
+  <si>
+    <t>Services VAT Rate</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Pensil</t>
+  </si>
+  <si>
+    <t>Buku</t>
+  </si>
+  <si>
+    <t>Penghapus</t>
+  </si>
+  <si>
+    <t>License Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>License Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Document Number</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Downloads\Tips dan Trik untuk Produktivitas Harian- Comserv.png</t>
+  </si>
+  <si>
+    <t>TEST APPROVE</t>
+  </si>
+  <si>
+    <t>RFQ Subject</t>
+  </si>
+  <si>
+    <t>RFQ Type</t>
+  </si>
+  <si>
+    <t>Tender Briefing Date</t>
+  </si>
+  <si>
+    <t>Quotation Submission Due Date</t>
+  </si>
+  <si>
+    <t>Goods Item Remarks</t>
+  </si>
+  <si>
+    <t>Services Item Remarks</t>
+  </si>
+  <si>
+    <t>Target Appointment Date</t>
+  </si>
+  <si>
+    <t>Internal Attachment Path</t>
+  </si>
+  <si>
+    <t>Vendor Attachment Path</t>
+  </si>
+  <si>
+    <t>2025/01/20 17:04:26</t>
+  </si>
+  <si>
+    <t>Submit Purchase Request is Fail. Error : OpenQA.Selenium.InvalidElementStateException: invalid element state
   (Session info: chrome=131.0.6778.266)
    at OpenQA.Selenium.WebDriver.UnpackAndThrowOnError(Response errorResponse, String commandToExecute)
    at OpenQA.Selenium.WebDriver.ExecuteAsync(String driverCommandToExecute, Dictionary`2 parameters)
@@ -309,20 +315,22 @@
    at LatihanSelenium.Utilities.AutomationHelpers.FillElement(IWebDriver driver, By locator, String param, Int32 sec) in C:\Users\chris\Documents\GitHub\LatihanSelenium\Utilities\AutomationHelpers.cs:line 62</t>
   </si>
   <si>
-    <t xml:space="preserve">Open File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go To Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
+    <t>Open File</t>
+  </si>
+  <si>
+    <t>Go To Data</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>21 Jan 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,7 +359,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -425,11 +433,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -697,23 +705,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -753,7 +761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -774,7 +782,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -791,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -805,7 +813,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -819,7 +827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -830,7 +838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -838,22 +846,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -864,21 +872,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -892,17 +900,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -913,30 +921,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:J2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="53.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="53.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -971,33 +979,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>89</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1005,40 +1010,40 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2"/>
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="0" count="1">
-    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1><![CDATA[$A$2:$A$1048576]]></formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$A$2:$A$1048576</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="I2" location="PurchaseRequest!A2"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I2" location="PurchaseRequest!A2" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$1000</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$50</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$20</xm:f>
           </x14:formula1>
@@ -1051,8 +1056,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1060,17 +1065,17 @@
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
-    <col min="6" max="6" width="65.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="65.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1093,57 +1098,57 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="0"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7"/>
       <c r="G7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$100</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
           <x14:formula1>
             <xm:f>Config!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
           <x14:formula1>
             <xm:f>Config!$F$2:$F$29</xm:f>
           </x14:formula1>
@@ -1156,28 +1161,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:I2"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="3" width="8.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="27.44140625" style="3" customWidth="1"/>
-    <col min="10" max="12" width="27.88671875" style="3" customWidth="1"/>
-    <col min="13" max="15" width="27.88671875" customWidth="1"/>
-    <col min="16" max="17" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="27.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="27.85546875" style="3" customWidth="1"/>
+    <col min="13" max="15" width="27.85546875" customWidth="1"/>
+    <col min="16" max="17" width="8.5703125" customWidth="1"/>
     <col min="18" max="18" width="32" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1252,8 +1257,8 @@
       <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="11">
-        <v>45677</v>
+      <c r="G2" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>73</v>
@@ -1270,20 +1275,20 @@
       <c r="L2" s="3">
         <v>20000</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="0">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="O2" s="0">
+      <c r="O2">
         <v>30000</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1302,20 +1307,20 @@
       <c r="L3" s="3">
         <v>2400</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="0">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="O3" s="0">
+      <c r="O3">
         <v>3400000</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G9" s="9"/>
     </row>
   </sheetData>
@@ -1346,21 +1351,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="3">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
@@ -1373,21 +1378,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="14" width="31.109375" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="14" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1448,7 +1452,7 @@
       <c r="K2" s="3"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1462,7 +1466,7 @@
       <c r="K3" s="3"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1479,21 +1483,21 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="3">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58F7276C-A6B8-40E9-869A-286CC04A775C}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58F7276C-A6B8-40E9-869A-286CC04A775C}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5FCBD161-9097-438F-9BDD-88984EF0A9B2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5FCBD161-9097-438F-9BDD-88984EF0A9B2}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{590AB1A5-E8EA-4FD2-B189-984D3FEAA961}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{590AB1A5-E8EA-4FD2-B189-984D3FEAA961}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>

--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Data\Project\selenium\dotnet\LatihanSelenium\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\LatihanSelenium\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA17C235-4E4D-4DB4-A609-C385E6645D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AFACDC-8547-4DEF-8E8A-8C6EF6F87546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TestPlan" sheetId="10" r:id="rId3"/>
     <sheet name="Task" sheetId="20" r:id="rId4"/>
     <sheet name="PurchaseRequest" sheetId="19" r:id="rId5"/>
-    <sheet name="RequestForQuotation" sheetId="21" r:id="rId6"/>
+    <sheet name="RequestForQuotation" sheetId="23" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestPlan!$A$1:$K$2</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>Module Name</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Cost Center</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Aris</t>
   </si>
   <si>
@@ -251,12 +248,6 @@
     <t>Pensil</t>
   </si>
   <si>
-    <t>Buku</t>
-  </si>
-  <si>
-    <t>Penghapus</t>
-  </si>
-  <si>
     <t>License Windows 11 Pro</t>
   </si>
   <si>
@@ -269,9 +260,6 @@
     <t>TESTING</t>
   </si>
   <si>
-    <t>C:\Users\chris\Downloads\Tips dan Trik untuk Produktivitas Harian- Comserv.png</t>
-  </si>
-  <si>
     <t>TEST APPROVE</t>
   </si>
   <si>
@@ -302,17 +290,16 @@
     <t>Vendor Attachment Path</t>
   </si>
   <si>
-    <t>2025/01/20 17:04:26</t>
-  </si>
-  <si>
-    <t>Submit Purchase Request is Fail. Error : OpenQA.Selenium.InvalidElementStateException: invalid element state
-  (Session info: chrome=131.0.6778.266)
-   at OpenQA.Selenium.WebDriver.UnpackAndThrowOnError(Response errorResponse, String commandToExecute)
-   at OpenQA.Selenium.WebDriver.ExecuteAsync(String driverCommandToExecute, Dictionary`2 parameters)
-   at OpenQA.Selenium.WebDriver.InternalExecute(String driverCommandToExecute, Dictionary`2 parameters)
-   at OpenQA.Selenium.WebElement.Execute(String commandToExecute, Dictionary`2 parameters)
-   at OpenQA.Selenium.WebElement.Clear()
-   at LatihanSelenium.Utilities.AutomationHelpers.FillElement(IWebDriver driver, By locator, String param, Int32 sec) in C:\Users\chris\Documents\GitHub\LatihanSelenium\Utilities\AutomationHelpers.cs:line 62</t>
+    <t>21 Jan 2025</t>
+  </si>
+  <si>
+    <t>IT - Information Technology</t>
+  </si>
+  <si>
+    <t>2025/01/21 09:20:20</t>
+  </si>
+  <si>
+    <t>Submit Purchase Request is Successfully.</t>
   </si>
   <si>
     <t>Open File</t>
@@ -321,10 +308,46 @@
     <t>Go To Data</t>
   </si>
   <si>
+    <t>PR/2025/01/0011</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Tender</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>TEST Goods Item</t>
+  </si>
+  <si>
+    <t>TEST Services Item</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Downloads\1.jpg</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>21 Jan 2025</t>
+    <t>22 Jan 2025</t>
+  </si>
+  <si>
+    <t>23 Jan 2025</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Apotek Dinda</t>
+  </si>
+  <si>
+    <t>Windows</t>
   </si>
 </sst>
 </file>
@@ -712,16 +735,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,15 +758,15 @@
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -755,15 +778,15 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -775,93 +798,93 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -879,14 +902,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -900,15 +923,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -922,29 +945,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -973,40 +996,60 @@
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
         <v>85</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>86</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>87</v>
       </c>
-      <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" t="s">
-        <v>89</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1065,17 +1108,17 @@
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="65.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="65.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1098,10 +1141,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1109,19 +1152,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7"/>
       <c r="G7" s="10"/>
     </row>
@@ -1162,27 +1205,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="3" width="8.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="27.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="27.85546875" style="3" customWidth="1"/>
-    <col min="13" max="15" width="27.85546875" customWidth="1"/>
-    <col min="16" max="17" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="27.44140625" style="3" customWidth="1"/>
+    <col min="10" max="12" width="27.88671875" style="3" customWidth="1"/>
+    <col min="13" max="15" width="27.88671875" customWidth="1"/>
+    <col min="16" max="17" width="8.5546875" customWidth="1"/>
     <col min="18" max="18" width="32" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1193,52 +1236,52 @@
         <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1249,25 +1292,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -1276,7 +1319,7 @@
         <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -1284,11 +1327,8 @@
       <c r="O2">
         <v>30000</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1298,17 +1338,8 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" t="s">
         <v>68</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -1316,35 +1347,9 @@
       <c r="O3">
         <v>3400000</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>45000</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G9" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1379,19 +1384,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="14" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.88671875" style="3" customWidth="1"/>
+    <col min="7" max="9" width="27.44140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="27.88671875" style="3" customWidth="1"/>
+    <col min="12" max="14" width="27.88671875" customWidth="1"/>
+    <col min="15" max="15" width="32" style="6" customWidth="1"/>
+    <col min="16" max="16" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1402,106 +1415,116 @@
         <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="N4" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58F7276C-A6B8-40E9-869A-286CC04A775C}">
-          <x14:formula1>
-            <xm:f>Config!$E$2:$E$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5FCBD161-9097-438F-9BDD-88984EF0A9B2}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03698A85-FD6B-4325-8289-1B3CE33F9AE9}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B4</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{590AB1A5-E8EA-4FD2-B189-984D3FEAA961}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12744060-DA41-4555-AA3A-B5D9D84CAF03}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A4</xm:sqref>
+          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -3,34 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\LatihanSelenium\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AFACDC-8547-4DEF-8E8A-8C6EF6F87546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Config" sheetId="9" r:id="rId1"/>
-    <sheet name="User" sheetId="11" r:id="rId2"/>
-    <sheet name="TestPlan" sheetId="10" r:id="rId3"/>
-    <sheet name="Task" sheetId="20" r:id="rId4"/>
-    <sheet name="PurchaseRequest" sheetId="19" r:id="rId5"/>
-    <sheet name="RequestForQuotation" sheetId="23" r:id="rId6"/>
+    <sheet name="VendorQuotation" sheetId="24" r:id="rId1"/>
+    <sheet name="Config" sheetId="9" r:id="rId2"/>
+    <sheet name="User" sheetId="11" r:id="rId3"/>
+    <sheet name="TestPlan" sheetId="10" r:id="rId4"/>
+    <sheet name="Task" sheetId="20" r:id="rId5"/>
+    <sheet name="PurchaseRequest" sheetId="19" r:id="rId6"/>
+    <sheet name="RequestForQuotation" sheetId="23" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestPlan!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1"><![CDATA[TestPlan!$A$1:$K$2]]></definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr autoRecover="0"/>
+  <fileRecoveryPr autoRecover="0" crashSave="0" dataExtractLoad="0" repairLoad="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -45,315 +40,413 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
-  <si>
-    <t>Module Name</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Approval</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Approve</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Test Case Id</t>
-  </si>
-  <si>
-    <t>From Test Case Id</t>
-  </si>
-  <si>
-    <t>Date Test</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Screen Capture</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>User Login</t>
-  </si>
-  <si>
-    <t>Sequence</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>Data For</t>
-  </si>
-  <si>
-    <t>Attachment Path</t>
-  </si>
-  <si>
-    <t>Cost Center</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>P@ssw0rd</t>
-  </si>
-  <si>
-    <t>Purchase Request</t>
-  </si>
-  <si>
-    <t>Request For Quotation</t>
-  </si>
-  <si>
-    <t>Vendor Quotation</t>
-  </si>
-  <si>
-    <t>Vendor Selection</t>
-  </si>
-  <si>
-    <t>Purchase Order</t>
-  </si>
-  <si>
-    <t>ROGS</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>Save As Draft</t>
-  </si>
-  <si>
-    <t>Submit Draft</t>
-  </si>
-  <si>
-    <t>PR Type</t>
-  </si>
-  <si>
-    <t>Catalog / Contract</t>
-  </si>
-  <si>
-    <t>Non-Catalog / Non-Contract</t>
-  </si>
-  <si>
-    <t>Direct Purchase</t>
-  </si>
-  <si>
-    <t>Search List</t>
-  </si>
-  <si>
-    <t>Search Pending Task</t>
-  </si>
-  <si>
-    <t>Update Draft</t>
-  </si>
-  <si>
-    <t>Discard Draft</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Re Submit</t>
-  </si>
-  <si>
-    <t>Revise</t>
-  </si>
-  <si>
-    <t>PR Subject</t>
-  </si>
-  <si>
-    <t>Required Date</t>
-  </si>
-  <si>
-    <t>Project Code</t>
-  </si>
-  <si>
-    <t>Goods Item Name</t>
-  </si>
-  <si>
-    <t>Goods Item Qty</t>
-  </si>
-  <si>
-    <t>Goods Item Price</t>
-  </si>
-  <si>
-    <t>Services Item Name</t>
-  </si>
-  <si>
-    <t>Services Item Qty</t>
-  </si>
-  <si>
-    <t>Services Item Price</t>
-  </si>
-  <si>
-    <t>Goods VAT Rate</t>
-  </si>
-  <si>
-    <t>Services VAT Rate</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Pensil</t>
-  </si>
-  <si>
-    <t>License Windows 11 Pro</t>
-  </si>
-  <si>
-    <t>License Windows 10 Pro</t>
-  </si>
-  <si>
-    <t>Document Number</t>
-  </si>
-  <si>
-    <t>TESTING</t>
-  </si>
-  <si>
-    <t>TEST APPROVE</t>
-  </si>
-  <si>
-    <t>RFQ Subject</t>
-  </si>
-  <si>
-    <t>RFQ Type</t>
-  </si>
-  <si>
-    <t>Tender Briefing Date</t>
-  </si>
-  <si>
-    <t>Quotation Submission Due Date</t>
-  </si>
-  <si>
-    <t>Goods Item Remarks</t>
-  </si>
-  <si>
-    <t>Services Item Remarks</t>
-  </si>
-  <si>
-    <t>Target Appointment Date</t>
-  </si>
-  <si>
-    <t>Internal Attachment Path</t>
-  </si>
-  <si>
-    <t>Vendor Attachment Path</t>
-  </si>
-  <si>
-    <t>21 Jan 2025</t>
-  </si>
-  <si>
-    <t>IT - Information Technology</t>
-  </si>
-  <si>
-    <t>2025/01/21 09:20:20</t>
-  </si>
-  <si>
-    <t>Submit Purchase Request is Successfully.</t>
-  </si>
-  <si>
-    <t>Open File</t>
-  </si>
-  <si>
-    <t>Go To Data</t>
-  </si>
-  <si>
-    <t>PR/2025/01/0011</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>Tender</t>
-  </si>
-  <si>
-    <t>REMARK</t>
-  </si>
-  <si>
-    <t>TEST Goods Item</t>
-  </si>
-  <si>
-    <t>TEST Services Item</t>
-  </si>
-  <si>
-    <t>C:\Users\chris\Downloads\1.jpg</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>22 Jan 2025</t>
-  </si>
-  <si>
-    <t>23 Jan 2025</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Apotek Dinda</t>
-  </si>
-  <si>
-    <t>Windows</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="124">
+  <si>
+    <t xml:space="preserve">Module Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Test Case Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen Capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data For</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P@ssw0rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request For Quotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Quotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save As Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalog / Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Catalog / Non-Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Pending Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discard Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods VAT Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services VAT Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">License Windows 11 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">License Windows 10 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST APPROVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFQ Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFQ Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tender Briefing Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quotation Submission Due Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods Item Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services Item Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Appointment Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Attachment Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Attachment Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Jan 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT - Information Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/01/21 09:20:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Purchase Request is Successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go To Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR/2025/01/0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST Goods Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST Services Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\chris\Downloads\1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">22 Jan 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Jan 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apotek Dinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFQ Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quotation Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quotation Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks Vendor Goods Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Vendor Goods Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount Vendor Goods Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks Vendor Services Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Vendor Services Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount Vendor Services Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFQ/2024/03/0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 Mar 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QN/TES/01/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Create VQ Automated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Kenny Nathaniel\Downloads\lockscreentemp.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplop Kabinet Kop Warna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction Tape CT-522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artline 70 Spidol Permanen Slim Line EK-700 Black 0.7mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/01/23 16:43:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Vendor Quotation is Fail. Error : OpenQA.Selenium.WebDriverTimeoutException: Timed out after 60 seconds
+ ---&gt; OpenQA.Selenium.NoSuchWindowException: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=131.0.6778.265)
+   at OpenQA.Selenium.WebDriver.UnpackAndThrowOnError(Response errorResponse, String commandToExecute)
+   at OpenQA.Selenium.WebDriver.ExecuteAsync(String driverCommandToExecute, Dictionary`2 parameters)
+   at OpenQA.Selenium.WebDriver.Execute(String driverCommandToExecute, Dictionary`2 parameters)
+   at OpenQA.Selenium.WebDriver.FindElement(String mechanism, String value)
+   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition, CancellationToken token)
+   --- End of inner exception stack trace ---
+   at OpenQA.Selenium.Support.UI.DefaultWait`1.ThrowTimeoutException(String exceptionMessage, Exception lastException)
+   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition, CancellationToken token)
+   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition)
+   at LatihanSelenium.Utilities.AutomationHelpers.ElementExist(IWebDriver driver, By locator, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/01/24 12:00:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Vendor Quotation is Fail. Error : System.Exception: OpenQA.Selenium.InvalidSelectorException: invalid selector
+from javascript error: {"status":32,"value":"Unable to locate an element with the xpath expression //div[@class='ant-input-number-input-wrap']//input'] because of the following error:\nSyntaxError: Failed to execute 'evaluate' on 'Document': The string '//div[@class='ant-input-number-input-wrap']//input']' is not a valid XPath expression."}
+  (Session info: chrome=131.0.6778.265); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalid-selector-exception
+   at OpenQA.Selenium.WebDriver.UnpackAndThrowOnError(Response errorResponse, String commandToExecute)
+   at OpenQA.Selenium.WebDriver.ExecuteAsync(String driverCommandToExecute, Dictionary`2 parameters)
+   at OpenQA.Selenium.WebDriver.Execute(String driverCommandToExecute, Dictionary`2 parameters)
+   at OpenQA.Selenium.WebDriver.FindElement(String mechanism, String value)
+   at OpenQA.Selenium.By.&lt;.ctor&gt;b__11_0(ISearchContext context)
+   at OpenQA.Selenium.By.FindElement(ISearchContext context)
+   at OpenQA.Selenium.WebDriver.FindElement(By by)
+   at SeleniumExtras.WaitHelpers.ExpectedConditions.&lt;&gt;c__DisplayClass6_0.&lt;ElementExists&gt;b__0(IWebDriver driver)
+   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition, CancellationToken token)
+   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition)
+   at LatihanSelenium.Utilities.AutomationHelpers.ElementExist(IWebDriver driver, By locator, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 151
+   at LatihanSelenium.Utilities.AutomationHelpers.ElementExist(IWebDriver driver, By locator, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 163
+   at LatihanSelenium.Utilities.AutomationHelpers.FillElement(IWebDriver driver, By locator, String param, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +475,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -411,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,6 +541,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -456,11 +552,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -728,8 +824,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.88671875" style="3" customWidth="1"/>
+    <col min="7" max="9" width="27.44140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="27.88671875" style="3" customWidth="1"/>
+    <col min="12" max="14" width="27.88671875" customWidth="1"/>
+    <col min="15" max="15" width="32" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" customWidth="1"/>
+    <col min="20" max="20" width="51.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20000</v>
+      </c>
+      <c r="M2" s="3">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="R2" s="0">
+        <v>11</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M3" s="12">
+        <v>15</v>
+      </c>
+      <c r="R3" s="0">
+        <v>11</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="3">
+        <v>40000</v>
+      </c>
+      <c r="M4" s="12">
+        <v>20</v>
+      </c>
+      <c r="R4" s="0">
+        <v>11</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4DEEB6C2-56C9-41C2-8498-386E6596D71D}">
+          <x14:formula1>
+            <xm:f>TestPlan!$A$2:$A$99538</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{738F430C-F0B6-4A19-84D7-7CD04C38594B}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$999</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
@@ -894,9 +1199,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -924,16 +1229,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -943,13 +1248,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,87 +1311,155 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="K4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="E5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K5" s="0" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:K2"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$A$2:$A$1048576</formula1>
+  <dataValidations disablePrompts="0" count="1">
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1><![CDATA[$A$2:$A$1048576]]></formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I2" location="PurchaseRequest!A2" display="Go To Data" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" location="PurchaseRequest!A2" display="Go To Data"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="I3" location="VendorQuotation!A2" display="Go To Data"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="I5" location="VendorQuotation!A2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$1000</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$50</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$20</xm:f>
           </x14:formula1>
@@ -1098,14 +1471,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G7"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,19 +1518,19 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1165,33 +1538,33 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7"/>
+      <c r="F7" s="0"/>
       <c r="G7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$100</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
           <x14:formula1>
             <xm:f>Config!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
           <x14:formula1>
             <xm:f>Config!$F$2:$F$29</xm:f>
           </x14:formula1>
@@ -1203,9 +1576,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R8"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1318,13 +1691,13 @@
       <c r="L2" s="3">
         <v>20000</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="0">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0">
         <v>30000</v>
       </c>
     </row>
@@ -1338,13 +1711,13 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0">
         <v>2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="0">
         <v>3400000</v>
       </c>
     </row>
@@ -1356,21 +1729,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="3">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
@@ -1382,11 +1755,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P8"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
@@ -1512,15 +1885,15 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03698A85-FD6B-4325-8289-1B3CE33F9AE9}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03698A85-FD6B-4325-8289-1B3CE33F9AE9}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12744060-DA41-4555-AA3A-B5D9D84CAF03}">
+        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12744060-DA41-4555-AA3A-B5D9D84CAF03}">
           <x14:formula1>
             <xm:f>TestPlan!$A$2:$A$99538</xm:f>
           </x14:formula1>

--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\LatihanSelenium\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AFACDC-8547-4DEF-8E8A-8C6EF6F87546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B09A3B3-46C8-45B9-9A3D-EEFF292558D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Task" sheetId="20" r:id="rId4"/>
     <sheet name="PurchaseRequest" sheetId="19" r:id="rId5"/>
     <sheet name="RequestForQuotation" sheetId="23" r:id="rId6"/>
+    <sheet name="Invoice" sheetId="25" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestPlan!$A$1:$K$2</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
   <si>
     <t>Module Name</t>
   </si>
@@ -348,13 +349,67 @@
   </si>
   <si>
     <t>Windows</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>Vendor Invoice Number</t>
+  </si>
+  <si>
+    <t>Invoice Received Date</t>
+  </si>
+  <si>
+    <t>Invoice Original Date</t>
+  </si>
+  <si>
+    <t>Invoice Due Date</t>
+  </si>
+  <si>
+    <t>Payment Type</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>Bank Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services VAT Rate </t>
+  </si>
+  <si>
+    <t>Services WHT Rate</t>
+  </si>
+  <si>
+    <t>Services WHT Amount</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Adjustment Value</t>
+  </si>
+  <si>
+    <t>PO/2024/03/0017</t>
+  </si>
+  <si>
+    <t>30 Jan 2025</t>
+  </si>
+  <si>
+    <t>31 Jan 2025</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>ADJUST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +444,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -411,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,6 +508,9 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,7 +1013,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:I3"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1207,9 +1271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,4 +1594,196 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9851563-60C0-48D9-98DB-65200492A70E}">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.88671875" style="3" customWidth="1"/>
+    <col min="7" max="9" width="27.44140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="27.88671875" style="3" customWidth="1"/>
+    <col min="12" max="14" width="27.88671875" customWidth="1"/>
+    <col min="15" max="15" width="32" style="6" customWidth="1"/>
+    <col min="16" max="16" width="31.33203125" customWidth="1"/>
+    <col min="17" max="19" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3121</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="3">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3">
+        <v>11</v>
+      </c>
+      <c r="O2" s="6">
+        <v>11</v>
+      </c>
+      <c r="P2" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2">
+        <v>10000</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="M4" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8072848-4E8F-49AA-918E-26DAEC2EDB03}">
+          <x14:formula1>
+            <xm:f>TestPlan!$A$2:$A$99538</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{404E6600-33CD-4A37-B89C-59BFDB357F1C}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$999</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -3,8 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\LatihanSelenium\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC26C3-C7B5-4170-9801-673D6D199FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VendorQuotation" sheetId="24" r:id="rId1"/>
@@ -14,18 +20,19 @@
     <sheet name="Task" sheetId="20" r:id="rId5"/>
     <sheet name="PurchaseRequest" sheetId="19" r:id="rId6"/>
     <sheet name="RequestForQuotation" sheetId="23" r:id="rId7"/>
+    <sheet name="Invoice" sheetId="26" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1"><![CDATA[TestPlan!$A$1:$K$2]]></definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TestPlan!$A$1:$K$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr autoRecover="0" crashSave="0" dataExtractLoad="0" repairLoad="0"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -40,414 +47,424 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="124">
-  <si>
-    <t xml:space="preserve">Module Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Test Case Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen Capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screenshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P@ssw0rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request For Quotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor Quotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor Selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save As Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalog / Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Catalog / Non-Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct Purchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Pending Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discard Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods VAT Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services VAT Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">License Windows 11 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">License Windows 10 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST APPROVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFQ Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFQ Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tender Briefing Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quotation Submission Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods Item Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services Item Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target Appointment Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Attachment Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor Attachment Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 Jan 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT - Information Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/01/21 09:20:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit Purchase Request is Successfully.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go To Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR/2025/01/0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST Goods Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST Services Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\chris\Downloads\1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">22 Jan 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 Jan 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apotek Dinda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFQ Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quotation Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quotation Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks Vendor Goods Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Vendor Goods Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discount Vendor Goods Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks Vendor Services Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Vendor Services Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discount Vendor Services Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFQ/2024/03/0022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 Mar 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QN/TES/01/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Create VQ Automated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\Kenny Nathaniel\Downloads\lockscreentemp.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplop Kabinet Kop Warna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correction Tape CT-522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artline 70 Spidol Permanen Slim Line EK-700 Black 0.7mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/01/23 16:43:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit Vendor Quotation is Fail. Error : OpenQA.Selenium.WebDriverTimeoutException: Timed out after 60 seconds
- ---&gt; OpenQA.Selenium.NoSuchWindowException: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: chrome=131.0.6778.265)
-   at OpenQA.Selenium.WebDriver.UnpackAndThrowOnError(Response errorResponse, String commandToExecute)
-   at OpenQA.Selenium.WebDriver.ExecuteAsync(String driverCommandToExecute, Dictionary`2 parameters)
-   at OpenQA.Selenium.WebDriver.Execute(String driverCommandToExecute, Dictionary`2 parameters)
-   at OpenQA.Selenium.WebDriver.FindElement(String mechanism, String value)
-   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition, CancellationToken token)
-   --- End of inner exception stack trace ---
-   at OpenQA.Selenium.Support.UI.DefaultWait`1.ThrowTimeoutException(String exceptionMessage, Exception lastException)
-   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition, CancellationToken token)
-   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition)
-   at LatihanSelenium.Utilities.AutomationHelpers.ElementExist(IWebDriver driver, By locator, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/01/24 12:00:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit Vendor Quotation is Fail. Error : System.Exception: OpenQA.Selenium.InvalidSelectorException: invalid selector
-from javascript error: {"status":32,"value":"Unable to locate an element with the xpath expression //div[@class='ant-input-number-input-wrap']//input'] because of the following error:\nSyntaxError: Failed to execute 'evaluate' on 'Document': The string '//div[@class='ant-input-number-input-wrap']//input']' is not a valid XPath expression."}
-  (Session info: chrome=131.0.6778.265); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalid-selector-exception
-   at OpenQA.Selenium.WebDriver.UnpackAndThrowOnError(Response errorResponse, String commandToExecute)
-   at OpenQA.Selenium.WebDriver.ExecuteAsync(String driverCommandToExecute, Dictionary`2 parameters)
-   at OpenQA.Selenium.WebDriver.Execute(String driverCommandToExecute, Dictionary`2 parameters)
-   at OpenQA.Selenium.WebDriver.FindElement(String mechanism, String value)
-   at OpenQA.Selenium.By.&lt;.ctor&gt;b__11_0(ISearchContext context)
-   at OpenQA.Selenium.By.FindElement(ISearchContext context)
-   at OpenQA.Selenium.WebDriver.FindElement(By by)
-   at SeleniumExtras.WaitHelpers.ExpectedConditions.&lt;&gt;c__DisplayClass6_0.&lt;ElementExists&gt;b__0(IWebDriver driver)
-   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition, CancellationToken token)
-   at OpenQA.Selenium.Support.UI.DefaultWait`1.Until[TResult](Func`2 condition)
-   at LatihanSelenium.Utilities.AutomationHelpers.ElementExist(IWebDriver driver, By locator, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 151
-   at LatihanSelenium.Utilities.AutomationHelpers.ElementExist(IWebDriver driver, By locator, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 163
-   at LatihanSelenium.Utilities.AutomationHelpers.FillElement(IWebDriver driver, By locator, String param, Int32 sec) in D:\AutomatedTestingQuickAcq\LatihanSelenium\Utilities\AutomationHelpers.cs:line 58</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>From Test Case Id</t>
+  </si>
+  <si>
+    <t>Date Test</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Screen Capture</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Data For</t>
+  </si>
+  <si>
+    <t>Attachment Path</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Purchase Request</t>
+  </si>
+  <si>
+    <t>Request For Quotation</t>
+  </si>
+  <si>
+    <t>Vendor Quotation</t>
+  </si>
+  <si>
+    <t>Vendor Selection</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>ROGS</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Save As Draft</t>
+  </si>
+  <si>
+    <t>Submit Draft</t>
+  </si>
+  <si>
+    <t>PR Type</t>
+  </si>
+  <si>
+    <t>Catalog / Contract</t>
+  </si>
+  <si>
+    <t>Non-Catalog / Non-Contract</t>
+  </si>
+  <si>
+    <t>Direct Purchase</t>
+  </si>
+  <si>
+    <t>Search List</t>
+  </si>
+  <si>
+    <t>Search Pending Task</t>
+  </si>
+  <si>
+    <t>Update Draft</t>
+  </si>
+  <si>
+    <t>Discard Draft</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Re Submit</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>PR Subject</t>
+  </si>
+  <si>
+    <t>Required Date</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Goods Item Name</t>
+  </si>
+  <si>
+    <t>Goods Item Qty</t>
+  </si>
+  <si>
+    <t>Goods Item Price</t>
+  </si>
+  <si>
+    <t>Services Item Name</t>
+  </si>
+  <si>
+    <t>Services Item Qty</t>
+  </si>
+  <si>
+    <t>Services Item Price</t>
+  </si>
+  <si>
+    <t>Goods VAT Rate</t>
+  </si>
+  <si>
+    <t>Services VAT Rate</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Pensil</t>
+  </si>
+  <si>
+    <t>License Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>License Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Document Number</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>TEST APPROVE</t>
+  </si>
+  <si>
+    <t>RFQ Subject</t>
+  </si>
+  <si>
+    <t>RFQ Type</t>
+  </si>
+  <si>
+    <t>Tender Briefing Date</t>
+  </si>
+  <si>
+    <t>Quotation Submission Due Date</t>
+  </si>
+  <si>
+    <t>Goods Item Remarks</t>
+  </si>
+  <si>
+    <t>Services Item Remarks</t>
+  </si>
+  <si>
+    <t>Target Appointment Date</t>
+  </si>
+  <si>
+    <t>Internal Attachment Path</t>
+  </si>
+  <si>
+    <t>Vendor Attachment Path</t>
+  </si>
+  <si>
+    <t>21 Jan 2025</t>
+  </si>
+  <si>
+    <t>IT - Information Technology</t>
+  </si>
+  <si>
+    <t>2025/01/21 09:20:20</t>
+  </si>
+  <si>
+    <t>Submit Purchase Request is Successfully.</t>
+  </si>
+  <si>
+    <t>Open File</t>
+  </si>
+  <si>
+    <t>Go To Data</t>
+  </si>
+  <si>
+    <t>PR/2025/01/0011</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Tender</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>TEST Goods Item</t>
+  </si>
+  <si>
+    <t>TEST Services Item</t>
+  </si>
+  <si>
+    <t>C:\Users\chris\Downloads\1.jpg</t>
+  </si>
+  <si>
+    <t>22 Jan 2025</t>
+  </si>
+  <si>
+    <t>23 Jan 2025</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Apotek Dinda</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>RFQ Number</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Quotation Number</t>
+  </si>
+  <si>
+    <t>Quotation Date</t>
+  </si>
+  <si>
+    <t>Valid Date</t>
+  </si>
+  <si>
+    <t>Remarks Vendor Goods Item</t>
+  </si>
+  <si>
+    <t>Price Vendor Goods Item</t>
+  </si>
+  <si>
+    <t>Discount Vendor Goods Item</t>
+  </si>
+  <si>
+    <t>Remarks Vendor Services Item</t>
+  </si>
+  <si>
+    <t>Price Vendor Services Item</t>
+  </si>
+  <si>
+    <t>Discount Vendor Services Item</t>
+  </si>
+  <si>
+    <t>RFQ/2024/03/0022</t>
+  </si>
+  <si>
+    <t>22 Mar 2024</t>
+  </si>
+  <si>
+    <t>QN/TES/01/2025</t>
+  </si>
+  <si>
+    <t>Testing Create VQ Automated</t>
+  </si>
+  <si>
+    <t>C:\Users\Kenny Nathaniel\Downloads\lockscreentemp.jpg</t>
+  </si>
+  <si>
+    <t>Amplop Kabinet Kop Warna</t>
+  </si>
+  <si>
+    <t>Correction Tape CT-522</t>
+  </si>
+  <si>
+    <t>Artline 70 Spidol Permanen Slim Line EK-700 Black 0.7mm</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>Vendor Invoice Number</t>
+  </si>
+  <si>
+    <t>Invoice Received Date</t>
+  </si>
+  <si>
+    <t>Invoice Original Date</t>
+  </si>
+  <si>
+    <t>Invoice Due Date</t>
+  </si>
+  <si>
+    <t>Payment Type</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>Bank Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services VAT Rate </t>
+  </si>
+  <si>
+    <t>Services WHT Rate</t>
+  </si>
+  <si>
+    <t>Services WHT Amount</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Adjustment Value</t>
+  </si>
+  <si>
+    <t>PO/2024/03/0017</t>
+  </si>
+  <si>
+    <t>30 Jan 2025</t>
+  </si>
+  <si>
+    <t>31 Jan 2025</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>ADJUST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,12 +492,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,6 +567,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,11 +578,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -824,8 +850,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:U8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -857,19 +883,19 @@
         <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>20</v>
@@ -878,25 +904,25 @@
         <v>57</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>60</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>63</v>
@@ -919,25 +945,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L2" s="3">
         <v>20000</v>
@@ -946,11 +972,11 @@
         <v>10</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="R2" s="0">
+      <c r="R2">
         <v>11</v>
       </c>
-      <c r="T2" s="0" t="s">
-        <v>116</v>
+      <c r="T2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -964,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3" s="3">
         <v>30000</v>
@@ -972,11 +998,11 @@
       <c r="M3" s="12">
         <v>15</v>
       </c>
-      <c r="R3" s="0">
+      <c r="R3">
         <v>11</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>116</v>
+      <c r="T3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -990,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L4" s="3">
         <v>40000</v>
@@ -998,11 +1024,11 @@
       <c r="M4" s="12">
         <v>20</v>
       </c>
-      <c r="R4" s="0">
+      <c r="R4">
         <v>11</v>
       </c>
-      <c r="T4" s="0" t="s">
-        <v>116</v>
+      <c r="T4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -1012,19 +1038,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4DEEB6C2-56C9-41C2-8498-386E6596D71D}">
-          <x14:formula1>
-            <xm:f>TestPlan!$A$2:$A$99538</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{738F430C-F0B6-4A19-84D7-7CD04C38594B}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{738F430C-F0B6-4A19-84D7-7CD04C38594B}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4DEEB6C2-56C9-41C2-8498-386E6596D71D}">
+          <x14:formula1>
+            <xm:f>TestPlan!$A$2:$A$99537</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1033,8 +1059,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
@@ -1200,8 +1226,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1229,16 +1255,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1249,12 +1275,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,155 +1337,85 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="G3" s="6"/>
+      <c r="K3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K2"/>
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="0" count="1">
-    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1><![CDATA[$A$2:$A$1048576]]></formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>$A$2:$A$1048576</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="I2" location="PurchaseRequest!A2" display="Go To Data"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="I3" location="VendorQuotation!A2" display="Go To Data"/>
-    <hyperlink ref="H5" r:id="rId3"/>
-    <hyperlink ref="I5" location="VendorQuotation!A2"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="I2" location="PurchaseRequest!A2" display="Go To Data" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF4BBE4-322C-43AA-907B-7E8804C69D29}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$1000</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1FC543-0F99-4865-B769-7910654B9523}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF0065DB-CFB7-4F2F-8F2C-0BC39A6E984A}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$50</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8352D6F0-1E94-47AA-9154-FEE416D3592C}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$20</xm:f>
           </x14:formula1>
@@ -1472,8 +1428,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1518,19 +1474,19 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1538,37 +1494,37 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="0"/>
+      <c r="F7"/>
       <c r="G7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="4">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>User!$B$2:$B$100</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
-          <x14:formula1>
-            <xm:f>TestPlan!$A$2:$A$99538</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E39EE4-6441-4C23-BDD7-10E1293E5F03}">
           <x14:formula1>
             <xm:f>Config!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCAF1936-EB14-4904-9946-DB0E2AD5F326}">
           <x14:formula1>
             <xm:f>Config!$F$2:$F$29</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+          <x14:formula1>
+            <xm:f>TestPlan!$A$2:$A$99537</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1577,8 +1533,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1691,13 +1647,13 @@
       <c r="L2" s="3">
         <v>20000</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="0">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="O2" s="0">
+      <c r="O2">
         <v>30000</v>
       </c>
     </row>
@@ -1711,13 +1667,13 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="0">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="O3" s="0">
+      <c r="O3">
         <v>3400000</v>
       </c>
     </row>
@@ -1729,25 +1685,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="3">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
-          <x14:formula1>
-            <xm:f>TestPlan!$A$2:$A$99538</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7071961E-2CD6-4886-8EA4-4BE8922E8D26}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9023320-1073-430A-8768-428D47ABCF22}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+          <x14:formula1>
+            <xm:f>TestPlan!$A$2:$A$99537</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1756,8 +1712,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1818,7 +1774,7 @@
         <v>77</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>79</v>
@@ -1844,31 +1800,31 @@
         <v>89</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>93</v>
@@ -1885,17 +1841,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03698A85-FD6B-4325-8289-1B3CE33F9AE9}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03698A85-FD6B-4325-8289-1B3CE33F9AE9}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$999</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12744060-DA41-4555-AA3A-B5D9D84CAF03}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12744060-DA41-4555-AA3A-B5D9D84CAF03}">
           <x14:formula1>
-            <xm:f>TestPlan!$A$2:$A$99538</xm:f>
+            <xm:f>TestPlan!$A$2:$A$99537</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -1903,4 +1859,173 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF5652-9343-43A5-9CF1-90918EE87ACE}">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M3:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.88671875" style="3" customWidth="1"/>
+    <col min="7" max="9" width="27.44140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="27.88671875" style="3" customWidth="1"/>
+    <col min="12" max="14" width="27.88671875" customWidth="1"/>
+    <col min="15" max="15" width="32" style="6" customWidth="1"/>
+    <col min="16" max="16" width="31.33203125" customWidth="1"/>
+    <col min="17" max="19" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3121</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="3">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3">
+        <v>11</v>
+      </c>
+      <c r="O2" s="6">
+        <v>11</v>
+      </c>
+      <c r="P2" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2">
+        <v>10000</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/QuickAcq Testplan.xlsx
+++ b/Resources/QuickAcq Testplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\LatihanSelenium\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC26C3-C7B5-4170-9801-673D6D199FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65FA61A-D13F-4780-BEEF-966DB24677CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1278,9 +1278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -1715,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
